--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,23 +36,26 @@
     <t>сняли счетчик</t>
   </si>
   <si>
-    <t>к доплате 86,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет </t>
-  </si>
-  <si>
-    <t>нет</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +141,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -156,7 +150,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,10 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -471,17 +463,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L5:M6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -489,206 +481,98 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="10">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43401</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3477</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="4">
-        <v>43386</v>
+        <v>43812</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>3577</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C2)</f>
-        <v>100</v>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>315</v>
       </c>
       <c r="E3" s="8">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
       <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>429</v>
+        <v>1414.17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1414.17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1414.17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>43617</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3596</v>
-      </c>
-      <c r="D4" s="12">
-        <f>SUM(C4,-C3)</f>
-        <v>19</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43812</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="6">
-        <v>1414.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -698,12 +582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -712,12 +596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -51,11 +51,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -463,17 +465,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -488,7 +490,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -514,21 +516,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43617</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="9"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43812</v>
       </c>
@@ -554,7 +558,7 @@
         <v>1414.17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -564,7 +568,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -582,12 +586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,12 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -162,6 +162,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,7 +473,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,14 +560,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>512</v>
+      </c>
+      <c r="D4" s="12">
+        <v>512</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="6">
+        <f>PRODUCT(D4,E4)</f>
+        <v>2298.88</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2298.88</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2298</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>

--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -2,43 +2,45 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Т1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Показания на день оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кВт/ч к оплате </t>
-  </si>
-  <si>
-    <t>сняли счетчик</t>
-  </si>
-  <si>
-    <t>День/ ночь</t>
-  </si>
-  <si>
     <t>Начислено по представленым показаниям и действующему тарифу</t>
   </si>
   <si>
@@ -46,16 +48,16 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,20 +76,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -128,47 +116,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -191,44 +162,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -261,9 +232,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -302,331 +273,339 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>43617</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43812</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>315</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="3">
+        <v>315</v>
+      </c>
+      <c r="E3" s="3">
         <v>4.49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
+        <f>D3*E3</f>
+        <v>1414.3500000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1414.35</v>
+      </c>
+      <c r="H3" s="3">
         <v>1414.17</v>
       </c>
-      <c r="G3" s="2">
-        <v>1414.17</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1414.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43972</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>827</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4-C3</f>
         <v>512</v>
       </c>
-      <c r="D4" s="12">
-        <v>512</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f>PRODUCT(D4,E4)</f>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
         <v>2298.88</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
         <v>2298.88</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>2298</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>электрик</t>
   </si>
 </sst>
 </file>
@@ -81,12 +90,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -116,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,6 +149,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,7 +436,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,19 +547,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>610</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>278</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="8"/>

--- a/sputnik/personal/ee/29ee.xlsx
+++ b/sputnik/personal/ee/29ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t>электрик</t>
   </si>
 </sst>
 </file>
@@ -99,7 +96,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,10 +146,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,7 +438,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,43 +542,60 @@
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2298.88</v>
+        <v>3290.88</v>
       </c>
       <c r="H4" s="8">
         <v>2298</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44303</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9">
+        <v>44460</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>610</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>200</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F5" s="12">
+        <f>PRODUCT(D5,E5)</f>
+        <v>992</v>
+      </c>
+      <c r="G5" s="13">
+        <f>SUM(F5,F6)</f>
+        <v>2332</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2332</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
-        <v>278</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="11">
+        <v>500</v>
+      </c>
+      <c r="D6" s="11">
+        <v>500</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F6" s="12">
+        <f>PRODUCT(D6,E6)</f>
+        <v>1340</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
